--- a/deskriptive_statistik.xlsx
+++ b/deskriptive_statistik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,281 +434,323 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>reactions</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B2" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3186.099944165271</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8521.817088115755</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>775</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1640</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4004</v>
+      </c>
+      <c r="I2" t="n">
+        <v>308770</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C3" t="n">
+        <v>68.82244556113903</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123.3577065451193</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>shares</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="B4" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C4" t="n">
+        <v>654.2601898380793</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2991.791208279649</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>420</v>
+      </c>
+      <c r="I4" t="n">
+        <v>80030</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Sentiment_Positive</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="B5" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1381323283082077</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07987991559328589</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.743</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Sentiment_Neutral</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="B6" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8332238972640983</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.106460130279914</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Sentiment_Negative</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B7" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02251032942490229</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03541851580682705</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Sentiment_Compound</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="B8" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7115852037967616</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3876041343285025</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.9758</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6471</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8908</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9611499999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Post Length</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="B9" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C9" t="n">
+        <v>729.1870463428253</v>
+      </c>
+      <c r="D9" t="n">
+        <v>497.5663355676402</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>346</v>
+      </c>
+      <c r="G9" t="n">
+        <v>657</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Emoji Count</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1791</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1791</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1791</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1791</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1791</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1791</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1791</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1791</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3186.099944165271</v>
-      </c>
-      <c r="B3" t="n">
-        <v>68.82244556113903</v>
-      </c>
-      <c r="C3" t="n">
-        <v>654.2601898380793</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1381323283082077</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8332238972640983</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.02251032942490229</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7115852037967616</v>
-      </c>
-      <c r="H3" t="n">
-        <v>729.1870463428253</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="B10" t="n">
+        <v>1791</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.692350642099386</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8521.817088115755</v>
-      </c>
-      <c r="B4" t="n">
-        <v>123.3577065451193</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2991.791208279649</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07987991559328589</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.106460130279914</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.03541851580682705</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3876041343285025</v>
-      </c>
-      <c r="H4" t="n">
-        <v>497.5663355676402</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="D10" t="n">
         <v>2.531972667449883</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.9758</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>775</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.794</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.6471</v>
-      </c>
-      <c r="H6" t="n">
-        <v>346</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1640</v>
-      </c>
-      <c r="B7" t="n">
-        <v>32</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8908</v>
-      </c>
-      <c r="H7" t="n">
-        <v>657</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4004</v>
-      </c>
-      <c r="B8" t="n">
-        <v>75</v>
-      </c>
-      <c r="C8" t="n">
-        <v>420</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0325</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9611499999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1005.5</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>308770</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1629</v>
-      </c>
-      <c r="C9" t="n">
-        <v>80030</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2982</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>42</v>
       </c>
     </row>

--- a/deskriptive_statistik.xlsx
+++ b/deskriptive_statistik.xlsx
@@ -7,7 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Descriptive Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Post Analysis" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Link Reactions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Link Comments" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Link Shares" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Emoji Reactions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Emoji Comments" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Emoji Shares" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Hashtag Reactions" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Hashtag Comments" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Hashtag Shares" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -757,4 +767,488 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Hashtag</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>82.62800565770863</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>59.81826568265683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Hashtag</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>825.7284299858558</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>542.4261992619926</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Emoji %</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>62.1998883305416</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hashtag %</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>60.52484645449469</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Link %</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19.48632049134562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>reactions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3225.99653259362</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3021.255014326648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>69.66504854368932</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>65.34097421203438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>649.1331484049931</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>675.4441260744985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Emoji</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>reactions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2851.797636632201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3389.262118491921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Emoji</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>55.56129985228952</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>76.88150807899461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Emoji</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>583.6189069423929</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>697.1903052064632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contains Hashtag</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>reactions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3928.517680339462</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2701.884686346863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>